--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\EI EPS\Canada InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="50" windowWidth="23960" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -58,9 +58,6 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>Do Suppliers Bid at Peak Capacity Factors</t>
-  </si>
-  <si>
     <t>Certain plant types, such as coal and natural gas, are capable of running for most</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
     <t>None needed.  See notes below.</t>
   </si>
   <si>
+    <t>lignite</t>
+  </si>
+  <si>
     <t>hard coal</t>
   </si>
   <si>
@@ -118,7 +118,16 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>coal to gas</t>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Do Suppliers Bid at Peak Capacity Factors (Boolean)</t>
   </si>
 </sst>
 </file>
@@ -165,8 +174,8 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,101 +483,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -581,24 +590,24 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -606,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -614,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -622,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -630,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -638,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -646,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -654,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -662,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -670,38 +679,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14">
         <f>B6</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
